--- a/data/match_result/SCAN000702-2/frontend.xlsx
+++ b/data/match_result/SCAN000702-2/frontend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>match_rank</t>
   </si>
@@ -34,7 +34,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8.9978</t>
+    <t>4.3104</t>
   </si>
   <si>
     <t>114</t>
@@ -55,7 +55,28 @@
     <t>2</t>
   </si>
   <si>
-    <t>8.7599</t>
+    <t>4.2115</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>[[134.24426251  69.33759604]
+ [230.01961635 183.47821806]
+ [115.87899433 279.25357191]
+ [ 20.10364048 165.11294988]]</t>
+  </si>
+  <si>
+    <t>[[100. 150.]
+ [249. 150.]
+ [249. 299.]
+ [100. 299.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.1635</t>
   </si>
   <si>
     <t>225</t>
@@ -73,31 +94,31 @@
  [250. 349.]]</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8.6675</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>[[134.24426251  69.33759604]
- [230.01961635 183.47821806]
- [115.87899433 279.25357191]
- [ 20.10364048 165.11294988]]</t>
-  </si>
-  <si>
-    <t>[[100. 150.]
- [249. 150.]
- [249. 299.]
- [100. 299.]]</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>8.4438</t>
+    <t>3.7928</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>[[ 19.33759604 115.75573749]
+ [133.47821806  19.98038365]
+ [229.25357191 134.12100567]
+ [115.11294988 229.89635952]]</t>
+  </si>
+  <si>
+    <t>[[150. 150.]
+ [299. 150.]
+ [299. 299.]
+ [150. 299.]]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.7201</t>
   </si>
   <si>
     <t>70</t>
@@ -109,31 +130,31 @@
  [200. 199.]]</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8.2885</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[ 19.33759604 115.75573749]
- [133.47821806  19.98038365]
- [229.25357191 134.12100567]
- [115.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[150. 150.]
- [299. 150.]
- [299. 299.]
- [150. 299.]]</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>7.6772</t>
+    <t>3.4796</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>[[ 97.54809472 277.45190528]
+ [ 23.04809472 148.41412012]
+ [152.08587988  73.91412012]
+ [226.58587988 202.95190528]]</t>
+  </si>
+  <si>
+    <t>[[100. 250.]
+ [249. 250.]
+ [249. 399.]
+ [100. 399.]]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.4703</t>
   </si>
   <si>
     <t>100</t>
@@ -151,10 +172,10 @@
  [  0. 399.]]</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7.6211</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.3976</t>
   </si>
   <si>
     <t>40</t>
@@ -172,13 +193,13 @@
  [100. 249.]]</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7.5856</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.3890</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>[[115.75573749  69.33759604]
@@ -187,31 +208,148 @@
  [ 19.98038365 183.47821806]]</t>
   </si>
   <si>
+    <t>[[250.   0.]
+ [399.   0.]
+ [399. 149.]
+ [250. 149.]]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.3746</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.3361</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>[[100.  50.]
+ [249.  50.]
+ [249. 199.]
+ [100. 199.]]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.2753</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[100.   0.]
+ [249.   0.]
+ [249. 149.]
+ [100. 149.]]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.1379</t>
+  </si>
+  <si>
     <t>[[150.   0.]
  [299.   0.]
  [299. 149.]
  [150. 149.]]</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7.4523</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>[[250.   0.]
- [399.   0.]
- [399. 149.]
- [250. 149.]]</t>
-  </si>
-  <si>
-    <t>7.4211</t>
-  </si>
-  <si>
-    <t>376</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.1233</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>[[221.12845731 219.82543581]
+ [ 81.11425681 270.78643717]
+ [ 30.15325546 130.77223667]
+ [170.16745595  79.81123531]]</t>
+  </si>
+  <si>
+    <t>[[ 50. 350.]
+ [199. 350.]
+ [199. 499.]
+ [ 50. 499.]]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.0946</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>[[ 64.16303185  38.1158052 ]
+ [210.89938705  63.98938367]
+ [185.02580858 210.72573887]
+ [ 38.28945338 184.8521604 ]]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.0834</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>[[100. 200.]
+ [249. 200.]
+ [249. 349.]
+ [100. 349.]]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.0760</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>[[450.   0.]
+ [599.   0.]
+ [599. 149.]
+ [450. 149.]]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.0677</t>
+  </si>
+  <si>
+    <t>[[ 50. 200.]
+ [199. 200.]
+ [199. 349.]
+ [ 50. 349.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.0495</t>
+  </si>
+  <si>
+    <t>372</t>
   </si>
   <si>
     <t>[[230.66240396 184.24426251]
@@ -220,166 +358,25 @@
  [134.88705012  70.10364048]]</t>
   </si>
   <si>
-    <t>[[  0. 100.]
- [149. 100.]
- [149. 249.]
- [  0. 249.]]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>7.3733</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[211.8841948   64.16303185]
- [186.01061633 210.89938705]
- [ 39.27426113 185.02580858]
- [ 65.1478396   38.28945338]]</t>
-  </si>
-  <si>
-    <t>[[300. 100.]
- [449. 100.]
- [449. 249.]
- [300. 249.]]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7.3633</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>7.1765</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>[[211.8841948  185.83696815]
- [ 65.1478396  211.71054662]
- [ 39.27426113  64.97419142]
- [186.01061633  39.10061295]]</t>
-  </si>
-  <si>
-    <t>[[ 50. 400.]
- [199. 400.]
- [199. 549.]
- [ 50. 549.]]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>7.0478</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>[[450.   0.]
- [599.   0.]
- [599. 149.]
- [450. 149.]]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7.0300</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7.0162</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>[[100.  50.]
- [249.  50.]
- [249. 199.]
- [100. 199.]]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6.9763</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6.9741</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>[[100. 200.]
- [249. 200.]
- [249. 349.]
- [100. 349.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6.8041</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>[[ 28.87154269  80.17456419]
- [168.88574319  29.21356283]
- [219.84674454 169.22776333]
- [ 79.83254405 220.18876469]]</t>
-  </si>
-  <si>
-    <t>[[200. 250.]
- [349. 250.]
- [349. 399.]
- [200. 399.]]</t>
+    <t>[[ 50.   0.]
+ [199.   0.]
+ [199. 149.]
+ [ 50. 149.]]</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>6.7980</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>[[ 64.16303185  38.1158052 ]
- [210.89938705  63.98938367]
- [185.02580858 210.72573887]
- [ 38.28945338 184.8521604 ]]</t>
-  </si>
-  <si>
-    <t>[[100.   0.]
- [249.   0.]
- [249. 149.]
- [100. 149.]]</t>
+    <t>3.0482</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>[[250. 250.]
+ [399. 250.]
+ [399. 399.]
+ [250. 399.]]</t>
   </si>
 </sst>
 </file>
@@ -806,24 +803,24 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -891,27 +888,27 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -925,27 +922,27 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -956,47 +953,47 @@
         <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1010,7 +1007,7 @@
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
@@ -1027,24 +1024,24 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
@@ -1078,10 +1075,10 @@
         <v>90</v>
       </c>
       <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
